--- a/abs/files/ABS Data API - All Dataflows 20.08.2021.xlsx
+++ b/abs/files/ABS Data API - All Dataflows 20.08.2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\peopledfs\stehhu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086E8C7-0337-4B2C-A4A0-847E88096B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1BC50B-42BD-4174-8359-9E14194FFE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4A36BA9-C9DF-42CE-9FF8-6D566F7E90B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27915" windowHeight="14760" xr2:uid="{C4A36BA9-C9DF-42CE-9FF8-6D566F7E90B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="1465">
   <si>
     <t>agencyID</t>
   </si>
@@ -4397,6 +4397,42 @@
   </si>
   <si>
     <t>https://api.data.abs.gov.au/data/ABS,ABS_REGIONAL_REMOTENESS,1.0.0/..10.A?startPeriod=2011</t>
+  </si>
+  <si>
+    <t>COVID_SC</t>
+  </si>
+  <si>
+    <t>COVID_HI</t>
+  </si>
+  <si>
+    <t>COVID_SALTS</t>
+  </si>
+  <si>
+    <t>Household Impacts of COVID-19 Survey, Selected Characteristics</t>
+  </si>
+  <si>
+    <t>COVID_HS</t>
+  </si>
+  <si>
+    <t>Household Impacts of COVID-19 Survey, Household Spending</t>
+  </si>
+  <si>
+    <t>Household Impacts of COVID-19 Survey, Household Income</t>
+  </si>
+  <si>
+    <t>Household Impacts of COVID-19 Survey by Sex, Age and Location</t>
+  </si>
+  <si>
+    <t>https://api.data.abs.gov.au/data/ABS,COVID_HI/.PROP....M?startPeriod=2020-01</t>
+  </si>
+  <si>
+    <t>https://api.data.abs.gov.au/data/ABS,COVID_SALTS/.PROP.PERSONS...M?startPeriod=2020-01</t>
+  </si>
+  <si>
+    <t>https://api.data.abs.gov.au/data/ABS,COVID_HS/.PROP....M?startPeriod=2020-01</t>
+  </si>
+  <si>
+    <t>https://api.data.abs.gov.au/data/ABS,COVID_SC/SEJS.PROP....M?startPeriod=2020-01</t>
   </si>
 </sst>
 </file>
@@ -4588,8 +4624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F4996A7-6DF7-4979-929C-3AC0138480A0}" name="Table1" displayName="Table1" ref="A1:E482" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:E482" xr:uid="{30265D2B-8CC0-4DF3-A224-6CA349688ABA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F4996A7-6DF7-4979-929C-3AC0138480A0}" name="Table1" displayName="Table1" ref="A1:E486" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:E486" xr:uid="{30265D2B-8CC0-4DF3-A224-6CA349688ABA}"/>
   <tableColumns count="5">
     <tableColumn id="7" xr3:uid="{34DD74BA-61CF-4A39-801A-4EE7A832A453}" uniqueName="agencyID" name="agencyID" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/ns1:Structure/ns1:Structures/ns3:Dataflows/ns3:Dataflow/@agencyID" xmlDataType="string"/>
@@ -4908,9 +4944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12184,16 +12222,16 @@
         <v>479</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>424</v>
+        <v>1454</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>907</v>
+        <v>1459</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1313</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -12201,16 +12239,16 @@
         <v>479</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>425</v>
+        <v>1457</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>908</v>
+        <v>1458</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1310</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -12218,16 +12256,16 @@
         <v>479</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>426</v>
+        <v>1455</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>909</v>
+        <v>1460</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1396</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -12235,16 +12273,16 @@
         <v>479</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>427</v>
+        <v>1453</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>910</v>
+        <v>1456</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1397</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -12252,16 +12290,16 @@
         <v>479</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1398</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -12269,16 +12307,16 @@
         <v>479</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1399</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -12286,16 +12324,16 @@
         <v>479</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -12303,16 +12341,16 @@
         <v>479</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -12320,16 +12358,16 @@
         <v>479</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -12337,16 +12375,16 @@
         <v>479</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -12354,16 +12392,16 @@
         <v>479</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1335</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -12371,16 +12409,16 @@
         <v>479</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -12388,16 +12426,16 @@
         <v>479</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -12405,16 +12443,16 @@
         <v>479</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -12422,16 +12460,16 @@
         <v>479</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1406</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -12439,16 +12477,16 @@
         <v>479</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1407</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -12456,16 +12494,16 @@
         <v>479</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -12473,16 +12511,16 @@
         <v>479</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1394</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -12490,16 +12528,16 @@
         <v>479</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -12507,16 +12545,16 @@
         <v>479</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -12524,16 +12562,16 @@
         <v>479</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -12541,16 +12579,16 @@
         <v>479</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -12558,16 +12596,16 @@
         <v>479</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -12575,16 +12613,16 @@
         <v>479</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -12592,16 +12630,16 @@
         <v>479</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -12609,16 +12647,16 @@
         <v>479</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -12626,16 +12664,16 @@
         <v>479</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -12643,16 +12681,16 @@
         <v>479</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -12660,16 +12698,16 @@
         <v>479</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -12677,16 +12715,16 @@
         <v>479</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -12694,16 +12732,16 @@
         <v>479</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -12711,16 +12749,16 @@
         <v>479</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -12728,16 +12766,16 @@
         <v>479</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -12745,16 +12783,16 @@
         <v>479</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -12762,16 +12800,16 @@
         <v>479</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -12779,16 +12817,16 @@
         <v>479</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -12796,16 +12834,16 @@
         <v>479</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1311</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -12813,16 +12851,16 @@
         <v>479</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1324</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -12830,16 +12868,16 @@
         <v>479</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1323</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -12847,16 +12885,16 @@
         <v>479</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1353</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -12864,16 +12902,16 @@
         <v>479</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1354</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -12881,16 +12919,16 @@
         <v>479</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1352</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -12898,16 +12936,16 @@
         <v>479</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1315</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -12915,16 +12953,16 @@
         <v>479</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -12932,16 +12970,16 @@
         <v>479</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1347</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -12949,16 +12987,16 @@
         <v>479</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -12966,16 +13004,16 @@
         <v>479</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1351</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -12983,16 +13021,16 @@
         <v>479</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -13000,16 +13038,16 @@
         <v>479</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -13017,16 +13055,16 @@
         <v>479</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1314</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -13034,16 +13072,16 @@
         <v>479</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1341</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -13051,16 +13089,16 @@
         <v>479</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1327</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -13068,16 +13106,16 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1328</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -13085,16 +13123,16 @@
         <v>479</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -13102,15 +13140,83 @@
         <v>479</v>
       </c>
       <c r="B482" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C482" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D482" s="1" t="s">
+      <c r="C486" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D486" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="E482" s="2" t="s">
+      <c r="E486" s="2" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -13197,15 +13303,15 @@
     <hyperlink ref="E2" r:id="rId78" xr:uid="{F706BA53-212E-48B7-87A8-5D7E121083A1}"/>
     <hyperlink ref="E87" r:id="rId79" xr:uid="{16CBCD3D-F30D-4391-95DB-EC704A4705F7}"/>
     <hyperlink ref="E401" r:id="rId80" xr:uid="{AA1DFF35-B4F0-4111-A28F-0A81B36900C8}"/>
-    <hyperlink ref="E428" r:id="rId81" xr:uid="{5DC0BBCB-28CB-41AA-8819-4D15181EE065}"/>
-    <hyperlink ref="E477" r:id="rId82" xr:uid="{387CD8A9-A9B7-44FA-A30D-69548EC1EAA5}"/>
-    <hyperlink ref="E470" r:id="rId83" xr:uid="{B5EF3DC6-63DC-48F5-802B-1359BA8E424A}"/>
-    <hyperlink ref="E471" r:id="rId84" xr:uid="{3F9EDF94-BFF1-4419-BBEA-8B29C83DD822}"/>
-    <hyperlink ref="E460" r:id="rId85" xr:uid="{829ED3B2-58ED-428B-8CD4-F7429F2CEA9A}"/>
-    <hyperlink ref="E461" r:id="rId86" xr:uid="{4913B7A8-4B11-4B65-8710-081497D77A2B}"/>
-    <hyperlink ref="E467" r:id="rId87" xr:uid="{330D2035-7C4F-474E-B59A-10D30838AE97}"/>
-    <hyperlink ref="E447" r:id="rId88" xr:uid="{701C4FE2-3BEE-4056-8290-C0DD6B24DA78}"/>
-    <hyperlink ref="E439" r:id="rId89" xr:uid="{7BE37D09-9663-45D2-990E-F584868B952F}"/>
+    <hyperlink ref="E432" r:id="rId81" xr:uid="{5DC0BBCB-28CB-41AA-8819-4D15181EE065}"/>
+    <hyperlink ref="E481" r:id="rId82" xr:uid="{387CD8A9-A9B7-44FA-A30D-69548EC1EAA5}"/>
+    <hyperlink ref="E474" r:id="rId83" xr:uid="{B5EF3DC6-63DC-48F5-802B-1359BA8E424A}"/>
+    <hyperlink ref="E475" r:id="rId84" xr:uid="{3F9EDF94-BFF1-4419-BBEA-8B29C83DD822}"/>
+    <hyperlink ref="E464" r:id="rId85" xr:uid="{829ED3B2-58ED-428B-8CD4-F7429F2CEA9A}"/>
+    <hyperlink ref="E465" r:id="rId86" xr:uid="{4913B7A8-4B11-4B65-8710-081497D77A2B}"/>
+    <hyperlink ref="E471" r:id="rId87" xr:uid="{330D2035-7C4F-474E-B59A-10D30838AE97}"/>
+    <hyperlink ref="E451" r:id="rId88" xr:uid="{701C4FE2-3BEE-4056-8290-C0DD6B24DA78}"/>
+    <hyperlink ref="E443" r:id="rId89" xr:uid="{7BE37D09-9663-45D2-990E-F584868B952F}"/>
     <hyperlink ref="E425" r:id="rId90" xr:uid="{F0F3FC7B-7481-43C5-AC08-F26F45D76EE6}"/>
     <hyperlink ref="E417" r:id="rId91" xr:uid="{8A0E9C0F-7153-40C6-A26A-C81DA89027DA}"/>
     <hyperlink ref="E416" r:id="rId92" xr:uid="{9847E63C-6FBD-4B59-B8B5-BB333636CE3F}"/>
@@ -13214,32 +13320,32 @@
     <hyperlink ref="E409" r:id="rId95" xr:uid="{B7E726F7-B756-43A7-A3DE-5F2BAB29DE4F}"/>
     <hyperlink ref="E418" r:id="rId96" xr:uid="{140670A9-02D3-4792-AA97-CB66E471FD8D}"/>
     <hyperlink ref="E424" r:id="rId97" xr:uid="{CCD56715-802A-4A7D-9680-D84767B92FD5}"/>
-    <hyperlink ref="E466" r:id="rId98" xr:uid="{AD131673-BDE8-49CB-B4CF-05A38D3E7DCF}"/>
-    <hyperlink ref="E465" r:id="rId99" xr:uid="{410042CB-0DC6-47B7-AEC7-3F4EFE253B11}"/>
+    <hyperlink ref="E470" r:id="rId98" xr:uid="{AD131673-BDE8-49CB-B4CF-05A38D3E7DCF}"/>
+    <hyperlink ref="E469" r:id="rId99" xr:uid="{410042CB-0DC6-47B7-AEC7-3F4EFE253B11}"/>
     <hyperlink ref="E358" r:id="rId100" xr:uid="{168108C2-A80A-48F4-B433-904C9F4FD978}"/>
-    <hyperlink ref="E481" r:id="rId101" xr:uid="{4C62AF7E-3E9E-4D0F-881B-12487B4970DB}"/>
-    <hyperlink ref="E479" r:id="rId102" xr:uid="{B152548B-89C6-4C6F-9B70-9955FBD1C523}"/>
-    <hyperlink ref="E480" r:id="rId103" xr:uid="{BBE28D06-3348-4B41-9B9E-8D6D5ADBDB5B}"/>
+    <hyperlink ref="E485" r:id="rId101" xr:uid="{4C62AF7E-3E9E-4D0F-881B-12487B4970DB}"/>
+    <hyperlink ref="E483" r:id="rId102" xr:uid="{B152548B-89C6-4C6F-9B70-9955FBD1C523}"/>
+    <hyperlink ref="E484" r:id="rId103" xr:uid="{BBE28D06-3348-4B41-9B9E-8D6D5ADBDB5B}"/>
     <hyperlink ref="E400" r:id="rId104" xr:uid="{68C398FD-2788-42D0-95E5-D30CFB7F8C23}"/>
     <hyperlink ref="E398" r:id="rId105" xr:uid="{3FEF46C7-0905-4162-A9F5-3B0D70741D9B}"/>
     <hyperlink ref="E402" r:id="rId106" xr:uid="{D146A82B-EC22-4C91-9DD4-3BC86C207C3A}"/>
     <hyperlink ref="E399" r:id="rId107" xr:uid="{4459E57B-2421-41D8-832A-DC413925EF27}"/>
     <hyperlink ref="E404" r:id="rId108" xr:uid="{E559E8FC-4B25-4FA4-88FB-CD3B58351C68}"/>
-    <hyperlink ref="E443" r:id="rId109" xr:uid="{9773010E-ED39-45C0-A0A8-E5E939D5DFC9}"/>
-    <hyperlink ref="E438" r:id="rId110" xr:uid="{2123C76E-15C2-4F32-BFD4-00C7C9F67B26}"/>
+    <hyperlink ref="E447" r:id="rId109" xr:uid="{9773010E-ED39-45C0-A0A8-E5E939D5DFC9}"/>
+    <hyperlink ref="E442" r:id="rId110" xr:uid="{2123C76E-15C2-4F32-BFD4-00C7C9F67B26}"/>
     <hyperlink ref="E360" r:id="rId111" xr:uid="{4CFE72D9-7B57-4F53-9282-9A51A0AAF8CB}"/>
-    <hyperlink ref="E482" r:id="rId112" xr:uid="{AF0B44C7-C3E4-4F0F-93A9-1B63BFFAA177}"/>
-    <hyperlink ref="E478" r:id="rId113" xr:uid="{D043A23C-4CE6-46C4-9336-72F3103EAAFF}"/>
+    <hyperlink ref="E486" r:id="rId112" xr:uid="{AF0B44C7-C3E4-4F0F-93A9-1B63BFFAA177}"/>
+    <hyperlink ref="E482" r:id="rId113" xr:uid="{D043A23C-4CE6-46C4-9336-72F3103EAAFF}"/>
     <hyperlink ref="E391" r:id="rId114" xr:uid="{65AFD258-81AE-4A59-8CCD-405D61C6024A}"/>
     <hyperlink ref="E390" r:id="rId115" xr:uid="{5BAA7C2F-BF33-4168-9875-14E31AC243C0}"/>
     <hyperlink ref="E423" r:id="rId116" display="https://api.data.abs.gov.au/data/ABS,BOP/1.100+110+120+130+170+180+1000+2000+4000+6000+8100+8110+8210+8305+8400+8450+8510+8520+8610+8620+8700+8710+8720+8750+8800+8805+8810+8815+8820+8825+8830+8835+8840+8845+8850+8855+8860+8865+8900.10.Q?startPeriod=2019-Q1" xr:uid="{117FDAF2-F237-4712-82C6-6D85E81B068B}"/>
-    <hyperlink ref="E472" r:id="rId117" xr:uid="{CBF4111D-B11B-45EF-B7B1-39612DCF675A}"/>
-    <hyperlink ref="E476" r:id="rId118" xr:uid="{5EC0BE10-A2A2-4C30-8ADA-7009BF682570}"/>
-    <hyperlink ref="E473" r:id="rId119" xr:uid="{D3C048E2-9EB3-44B8-91D8-36E47B30CA1C}"/>
-    <hyperlink ref="E474" r:id="rId120" xr:uid="{7E425443-5280-448A-991B-B1509122EB7C}"/>
-    <hyperlink ref="E475" r:id="rId121" xr:uid="{26EE99D7-5CB5-48E6-A179-1E5699D9CC26}"/>
-    <hyperlink ref="E469" r:id="rId122" xr:uid="{8F1A061C-CCAB-44B5-A7B2-B601C2C52D50}"/>
-    <hyperlink ref="E468" r:id="rId123" xr:uid="{08EB471F-2A68-481E-9878-C5E76B840F2A}"/>
+    <hyperlink ref="E476" r:id="rId117" xr:uid="{CBF4111D-B11B-45EF-B7B1-39612DCF675A}"/>
+    <hyperlink ref="E480" r:id="rId118" xr:uid="{5EC0BE10-A2A2-4C30-8ADA-7009BF682570}"/>
+    <hyperlink ref="E477" r:id="rId119" xr:uid="{D3C048E2-9EB3-44B8-91D8-36E47B30CA1C}"/>
+    <hyperlink ref="E478" r:id="rId120" xr:uid="{7E425443-5280-448A-991B-B1509122EB7C}"/>
+    <hyperlink ref="E479" r:id="rId121" xr:uid="{26EE99D7-5CB5-48E6-A179-1E5699D9CC26}"/>
+    <hyperlink ref="E473" r:id="rId122" xr:uid="{8F1A061C-CCAB-44B5-A7B2-B601C2C52D50}"/>
+    <hyperlink ref="E472" r:id="rId123" xr:uid="{08EB471F-2A68-481E-9878-C5E76B840F2A}"/>
     <hyperlink ref="E403" r:id="rId124" xr:uid="{35B58591-8316-4B94-98AE-939F8B6CA40D}"/>
     <hyperlink ref="E10" r:id="rId125" xr:uid="{65AEE20E-7B33-4FFB-BE7B-A70AEB0DCD1B}"/>
     <hyperlink ref="E359" r:id="rId126" xr:uid="{A8121937-AA6B-496C-B7B2-0F09B823AEDD}"/>
@@ -13285,36 +13391,36 @@
     <hyperlink ref="E376" r:id="rId166" xr:uid="{8A3BB44B-4C76-432C-9BE7-293FD2BAEB2D}"/>
     <hyperlink ref="E426" r:id="rId167" xr:uid="{5318B6D4-2F91-4567-84BA-3379B59FC0C8}"/>
     <hyperlink ref="E427" r:id="rId168" xr:uid="{BEDF6B6D-EA61-4C02-B9C4-40B7D4161281}"/>
-    <hyperlink ref="E429" r:id="rId169" xr:uid="{7D499F23-C702-45CF-8F55-7F194C6C62DE}"/>
-    <hyperlink ref="E445" r:id="rId170" xr:uid="{A9A88373-F0B2-40E6-A392-9C7EB196A991}"/>
-    <hyperlink ref="E446" r:id="rId171" xr:uid="{0D793E3F-55B7-4A10-89ED-4F05CB294062}"/>
-    <hyperlink ref="E430" r:id="rId172" xr:uid="{534F6EE8-5E14-463F-8344-6603EAAEE0A2}"/>
-    <hyperlink ref="E431" r:id="rId173" xr:uid="{FBDFB47C-9348-49D3-958A-B80F355297DB}"/>
-    <hyperlink ref="E432" r:id="rId174" xr:uid="{8A915402-3154-48EB-9905-A63DCA3EA533}"/>
-    <hyperlink ref="E433" r:id="rId175" xr:uid="{A66A94BE-43AC-4FE6-9E23-8E3BA5281BAE}"/>
-    <hyperlink ref="E434" r:id="rId176" xr:uid="{C0FCD724-78A1-415B-A1F5-B325E7250B0F}"/>
-    <hyperlink ref="E435" r:id="rId177" xr:uid="{B78A8649-3181-49FD-B26F-C7668F7F17B6}"/>
-    <hyperlink ref="E436" r:id="rId178" xr:uid="{3D92F2DD-6AF5-4C9A-A41F-432A68509DD2}"/>
-    <hyperlink ref="E437" r:id="rId179" xr:uid="{69AA0A77-14AC-4F04-A062-BF304E507D8E}"/>
-    <hyperlink ref="E441" r:id="rId180" xr:uid="{CDE49FC1-D7A4-48E2-A933-2B989ED229E3}"/>
-    <hyperlink ref="E440" r:id="rId181" xr:uid="{212F1945-84F2-41B7-A373-A41BC3249BAC}"/>
-    <hyperlink ref="E442" r:id="rId182" xr:uid="{FA804B82-53DE-4A78-898A-8DD6D6AFA957}"/>
-    <hyperlink ref="E444" r:id="rId183" xr:uid="{7B72C278-547F-44DC-B872-806DCF366067}"/>
-    <hyperlink ref="E452" r:id="rId184" xr:uid="{6B9EE270-F2E7-48BD-A856-02624E22C63A}"/>
-    <hyperlink ref="E448" r:id="rId185" xr:uid="{4080B005-7732-40BD-B657-6D7D2E934BF8}"/>
-    <hyperlink ref="E449" r:id="rId186" xr:uid="{CF3767C3-B049-47DA-B373-A17C86A33EB6}"/>
-    <hyperlink ref="E450" r:id="rId187" xr:uid="{DB64041C-17E8-4331-86F5-145C0934F85D}"/>
-    <hyperlink ref="E451" r:id="rId188" xr:uid="{889359A9-760E-4941-BA61-0289BD36B12F}"/>
-    <hyperlink ref="E453" r:id="rId189" xr:uid="{EB444F8A-3D5A-4542-8D30-8A1BD9D4579F}"/>
-    <hyperlink ref="E454" r:id="rId190" xr:uid="{7C4FBCAC-1E26-4994-B099-0C9F6074C0F5}"/>
-    <hyperlink ref="E455" r:id="rId191" xr:uid="{251E1A1B-FC44-49CE-AE3A-35D24157C1EB}"/>
-    <hyperlink ref="E463" r:id="rId192" xr:uid="{EA3F9BEA-C41A-4A27-BAF7-F8F775A8E289}"/>
-    <hyperlink ref="E456" r:id="rId193" xr:uid="{68C531D8-D55F-4376-A218-9E8B8E185741}"/>
-    <hyperlink ref="E457" r:id="rId194" xr:uid="{974F6025-B1DD-4DAF-A261-9AC1D9340B6E}"/>
-    <hyperlink ref="E458" r:id="rId195" xr:uid="{77E56D76-8540-4920-95A8-89EFD5765041}"/>
-    <hyperlink ref="E459" r:id="rId196" xr:uid="{36770CAB-F48B-4946-A28F-A8AC9BE02A5F}"/>
-    <hyperlink ref="E462" r:id="rId197" xr:uid="{D65A3ED0-595A-431D-BA79-7D327FAC6395}"/>
-    <hyperlink ref="E464" r:id="rId198" xr:uid="{493B363D-897C-4277-B971-B3FA3556CFC2}"/>
+    <hyperlink ref="E433" r:id="rId169" xr:uid="{7D499F23-C702-45CF-8F55-7F194C6C62DE}"/>
+    <hyperlink ref="E449" r:id="rId170" xr:uid="{A9A88373-F0B2-40E6-A392-9C7EB196A991}"/>
+    <hyperlink ref="E450" r:id="rId171" xr:uid="{0D793E3F-55B7-4A10-89ED-4F05CB294062}"/>
+    <hyperlink ref="E434" r:id="rId172" xr:uid="{534F6EE8-5E14-463F-8344-6603EAAEE0A2}"/>
+    <hyperlink ref="E435" r:id="rId173" xr:uid="{FBDFB47C-9348-49D3-958A-B80F355297DB}"/>
+    <hyperlink ref="E436" r:id="rId174" xr:uid="{8A915402-3154-48EB-9905-A63DCA3EA533}"/>
+    <hyperlink ref="E437" r:id="rId175" xr:uid="{A66A94BE-43AC-4FE6-9E23-8E3BA5281BAE}"/>
+    <hyperlink ref="E438" r:id="rId176" xr:uid="{C0FCD724-78A1-415B-A1F5-B325E7250B0F}"/>
+    <hyperlink ref="E439" r:id="rId177" xr:uid="{B78A8649-3181-49FD-B26F-C7668F7F17B6}"/>
+    <hyperlink ref="E440" r:id="rId178" xr:uid="{3D92F2DD-6AF5-4C9A-A41F-432A68509DD2}"/>
+    <hyperlink ref="E441" r:id="rId179" xr:uid="{69AA0A77-14AC-4F04-A062-BF304E507D8E}"/>
+    <hyperlink ref="E445" r:id="rId180" xr:uid="{CDE49FC1-D7A4-48E2-A933-2B989ED229E3}"/>
+    <hyperlink ref="E444" r:id="rId181" xr:uid="{212F1945-84F2-41B7-A373-A41BC3249BAC}"/>
+    <hyperlink ref="E446" r:id="rId182" xr:uid="{FA804B82-53DE-4A78-898A-8DD6D6AFA957}"/>
+    <hyperlink ref="E448" r:id="rId183" xr:uid="{7B72C278-547F-44DC-B872-806DCF366067}"/>
+    <hyperlink ref="E456" r:id="rId184" xr:uid="{6B9EE270-F2E7-48BD-A856-02624E22C63A}"/>
+    <hyperlink ref="E452" r:id="rId185" xr:uid="{4080B005-7732-40BD-B657-6D7D2E934BF8}"/>
+    <hyperlink ref="E453" r:id="rId186" xr:uid="{CF3767C3-B049-47DA-B373-A17C86A33EB6}"/>
+    <hyperlink ref="E454" r:id="rId187" xr:uid="{DB64041C-17E8-4331-86F5-145C0934F85D}"/>
+    <hyperlink ref="E455" r:id="rId188" xr:uid="{889359A9-760E-4941-BA61-0289BD36B12F}"/>
+    <hyperlink ref="E457" r:id="rId189" xr:uid="{EB444F8A-3D5A-4542-8D30-8A1BD9D4579F}"/>
+    <hyperlink ref="E458" r:id="rId190" xr:uid="{7C4FBCAC-1E26-4994-B099-0C9F6074C0F5}"/>
+    <hyperlink ref="E459" r:id="rId191" xr:uid="{251E1A1B-FC44-49CE-AE3A-35D24157C1EB}"/>
+    <hyperlink ref="E467" r:id="rId192" xr:uid="{EA3F9BEA-C41A-4A27-BAF7-F8F775A8E289}"/>
+    <hyperlink ref="E460" r:id="rId193" xr:uid="{68C531D8-D55F-4376-A218-9E8B8E185741}"/>
+    <hyperlink ref="E461" r:id="rId194" xr:uid="{974F6025-B1DD-4DAF-A261-9AC1D9340B6E}"/>
+    <hyperlink ref="E462" r:id="rId195" xr:uid="{77E56D76-8540-4920-95A8-89EFD5765041}"/>
+    <hyperlink ref="E463" r:id="rId196" xr:uid="{36770CAB-F48B-4946-A28F-A8AC9BE02A5F}"/>
+    <hyperlink ref="E466" r:id="rId197" xr:uid="{D65A3ED0-595A-431D-BA79-7D327FAC6395}"/>
+    <hyperlink ref="E468" r:id="rId198" xr:uid="{493B363D-897C-4277-B971-B3FA3556CFC2}"/>
     <hyperlink ref="E44" r:id="rId199" xr:uid="{7425F459-6780-459F-ADB0-7D14D132AB86}"/>
     <hyperlink ref="E158" r:id="rId200" xr:uid="{885AAD20-8C9E-4EDC-B79A-1ADA5770AF26}"/>
     <hyperlink ref="E159" r:id="rId201" xr:uid="{65152E7B-3537-4128-B636-B6E7E5BC0F04}"/>
@@ -13322,11 +13428,15 @@
     <hyperlink ref="E395" r:id="rId203" xr:uid="{874B4283-B50E-438A-8688-AF59AE27C49B}"/>
     <hyperlink ref="E392" r:id="rId204" xr:uid="{2CC9CB8A-B289-4B92-96B0-E17798B2B1B5}"/>
     <hyperlink ref="E394" r:id="rId205" xr:uid="{2B2C6176-AA13-471D-8369-6810272B3932}"/>
+    <hyperlink ref="E431" r:id="rId206" xr:uid="{5B39544D-CE95-4345-A653-5007A4C87BC6}"/>
+    <hyperlink ref="E430" r:id="rId207" xr:uid="{4767A211-050B-4948-840D-153D474BAD0F}"/>
+    <hyperlink ref="E429" r:id="rId208" xr:uid="{C939BAD1-4DA2-44C9-B2FD-87DF4C679260}"/>
+    <hyperlink ref="E428" r:id="rId209" xr:uid="{DBC89DB9-E8AC-4E6A-BB92-A81EC5541C61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId206"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId210"/>
   <tableParts count="1">
-    <tablePart r:id="rId207"/>
+    <tablePart r:id="rId211"/>
   </tableParts>
 </worksheet>
 </file>